--- a/20180126_SmartCut/Meeting/20190125 Meeting/20190122 Mode Shape.xlsx
+++ b/20180126_SmartCut/Meeting/20190125 Meeting/20190122 Mode Shape.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VbaProject\20180126_SmartCut\Meeting\20190125 Meeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0941F01B-FC16-401A-9D8B-EACD39C5156B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="6795" xr2:uid="{BF4CE779-E20A-433F-B0AE-8E8B61945B47}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Diaphragm Center of Mass Displa" sheetId="2" r:id="rId1"/>
     <sheet name="工作表1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -307,6 +306,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -835,6 +835,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -866,6 +867,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -873,7 +875,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -949,6 +950,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1029,13 +1031,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.52468999735485777</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34292464551087315</c:v>
+                  <c:v>0.65357572517043183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13238535713426899</c:v>
+                  <c:v>0.2523115702637157</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1116,13 +1118,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-0.31924134803186471</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32102441058352782</c:v>
+                  <c:v>-1.0055853120614098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35973424138460752</c:v>
+                  <c:v>-1.1268410047833186</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1203,13 +1205,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-0.14438866570761727</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38837918663857168</c:v>
+                  <c:v>-2.6898176857249161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.46723214765381099</c:v>
+                  <c:v>3.2359336888668402</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1290,13 +1292,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.37142152896385089</c:v>
+                  <c:v>0.99990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34144589590863744</c:v>
+                  <c:v>0.27056112196894877</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1422189262394466</c:v>
+                  <c:v>0.16620508525935893</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1477,6 +1479,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1508,6 +1511,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1515,7 +1519,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3037,11 +3040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FF1166-07FC-4D28-9860-F4D08AE5DB1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3314,20 +3317,20 @@
         <v>4</v>
       </c>
       <c r="T7" s="3">
-        <f>N7/(ABS(N$7)+ABS(N$8)+ABS(N$9))</f>
-        <v>0.52468999735485777</v>
+        <f>1/N$7*N7</f>
+        <v>1</v>
       </c>
       <c r="U7" s="3">
-        <f>O7/(ABS(O$7)+ABS(O$8)+ABS(O$9))</f>
-        <v>-0.31924134803186471</v>
+        <f>1/O$7*O7</f>
+        <v>1</v>
       </c>
       <c r="V7" s="3">
-        <f t="shared" ref="U7:V9" si="0">P7/(ABS(P$7)+ABS(P$8)+ABS(P$9))</f>
-        <v>-0.14438866570761727</v>
+        <f>1/P$7*P7</f>
+        <v>1</v>
       </c>
       <c r="W7" s="3">
         <f>T7*T$5+U7*U$5+V7*V$5</f>
-        <v>0.37142152896385089</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -3382,20 +3385,20 @@
         <v>3</v>
       </c>
       <c r="T8" s="3">
-        <f>N8/(ABS(N$7)+ABS(N$8)+ABS(N$9))</f>
-        <v>0.34292464551087315</v>
+        <f>1/N$7*N8</f>
+        <v>0.65357572517043183</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.32102441058352782</v>
+        <f t="shared" ref="U8:U9" si="0">1/O$7*O8</f>
+        <v>-1.0055853120614098</v>
       </c>
       <c r="V8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.38837918663857168</v>
+        <f>1/P$7*P8</f>
+        <v>-2.6898176857249161</v>
       </c>
       <c r="W8" s="3">
         <f>T8*T$5+U8*U$5+V8*V$5</f>
-        <v>0.34144589590863744</v>
+        <v>0.27056112196894877</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -3450,20 +3453,20 @@
         <v>2</v>
       </c>
       <c r="T9" s="3">
-        <f>N9/(ABS(N$7)+ABS(N$8)+ABS(N$9))</f>
-        <v>0.13238535713426899</v>
+        <f>1/N$7*N9</f>
+        <v>0.2523115702637157</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="0"/>
-        <v>0.35973424138460752</v>
+        <v>-1.1268410047833186</v>
       </c>
       <c r="V9" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.46723214765381099</v>
+        <f>1/P$7*P9</f>
+        <v>3.2359336888668402</v>
       </c>
       <c r="W9" s="3">
         <f>T9*T$5+U9*U$5+V9*V$5</f>
-        <v>0.1422189262394466</v>
+        <v>0.16620508525935893</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -3577,24 +3580,8 @@
         <v>0.50258100000000006</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" ref="O11:Q11" si="5">SUM(Q7:Q10)</f>
+        <f t="shared" ref="Q11" si="5">SUM(Q7:Q10)</f>
         <v>0.42926436810000002</v>
-      </c>
-      <c r="T11" s="3">
-        <f>ABS(T7)+ABS(T8)+ABS(T9)</f>
-        <v>1</v>
-      </c>
-      <c r="U11" s="3">
-        <f t="shared" ref="U11:W11" si="6">ABS(U7)+ABS(U8)+ABS(U9)</f>
-        <v>1</v>
-      </c>
-      <c r="V11" s="3">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W11" s="3">
-        <f>ABS(W7)+ABS(W8)+ABS(W9)</f>
-        <v>0.85508635111193487</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -3734,7 +3721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C24EB8F-78AF-4D1A-BD34-7039F6FE2C15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
